--- a/arômes hydromel.xlsx
+++ b/arômes hydromel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PROJECTS\ONGOING\Astyanax\HYDROMELLERIE\arome-hydromel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3215C62-37C2-4C92-BB55-378E6DE7028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D892D-2629-422F-B43C-42285D5D12E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{1574ACEB-8B8E-4962-AF04-679BC709BC8E}"/>
   </bookViews>
@@ -18,16 +18,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil2!$A$1:$B$987</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$2:$C$107</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$A$2:$C$115</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$D$2:$D$107</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$D$2:$D$115</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$A$2:$C$127</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$127</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$D$2:$D$117</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$A$2:$C$117</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$2:$D$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="531">
   <si>
     <t>Ruche</t>
   </si>
@@ -1628,6 +1626,21 @@
   </si>
   <si>
     <t>Litchi</t>
+  </si>
+  <si>
+    <t>Couleur 1</t>
+  </si>
+  <si>
+    <t>Couleur 2</t>
+  </si>
+  <si>
+    <t>Couleur 3</t>
+  </si>
+  <si>
+    <t>Fruits à coque</t>
+  </si>
+  <si>
+    <t>Pruneau</t>
   </si>
 </sst>
 </file>
@@ -1672,6 +1685,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF862D00"/>
+      <color rgb="FF963200"/>
+      <color rgb="FF9F5FCF"/>
+      <color rgb="FF8A3CC4"/>
+      <color rgb="FFD09458"/>
+      <color rgb="FFCD8E4F"/>
+      <color rgb="FFC9843F"/>
+      <color rgb="FFFFE653"/>
+      <color rgb="FFFFDC0D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1688,10 +1715,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1701,10 +1728,194 @@
         <cx:series layoutId="sunburst" uniqueId="{5C5479A3-2C07-437F-B91F-DC16D059D469}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Montant</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="6">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="862D00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="25">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C9843F"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="26">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CD8E4F"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="34">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D09458"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="38">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="39">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8A3CC4"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="45">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9F5FCF"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="49">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CC0066"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="50">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF85C2"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="54">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0180"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="60">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EE0077"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="66">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF43A1"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="71">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2190"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="76">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9BCD"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="79">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DE006F"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="87">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF61B0"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="97">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EECC00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="98">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFDC0D"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="106">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFE653"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="119">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="005800"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="120">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="007400"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="127">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B400"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="130">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="006600"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="139">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008200"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="145">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="009600"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
           <cx:dataLabels pos="ctr">
             <cx:visibility seriesName="0" categoryName="1" value="0"/>
           </cx:dataLabels>
@@ -2270,16 +2481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152403</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2315,8 +2526,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4838703" y="66675"/>
-              <a:ext cx="11820522" cy="10534650"/>
+              <a:off x="7286626" y="38101"/>
+              <a:ext cx="9648824" cy="7972424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2646,20 +2857,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B8BBE-0907-4444-BA33-11D173EA2D3F}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2672,166 +2883,220 @@
       <c r="D1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
         <v>121</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>88</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
         <v>110</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>81</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
         <v>86</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
         <v>103</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>127</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
       <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
         <v>84</v>
       </c>
       <c r="D16">
@@ -2843,6 +3108,9 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
       <c r="D17">
@@ -2854,6 +3122,9 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
       </c>
       <c r="D18">
@@ -2865,6 +3136,9 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19">
@@ -2876,6 +3150,9 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>82</v>
       </c>
       <c r="D20">
@@ -3251,10 +3528,10 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3265,10 +3542,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3279,10 +3556,10 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3293,10 +3570,10 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>529</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3307,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3321,10 +3598,10 @@
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3335,10 +3612,10 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3349,10 +3626,10 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3363,10 +3640,10 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3377,10 +3654,10 @@
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3391,10 +3668,10 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3405,10 +3682,10 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3419,10 +3696,10 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>430</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3433,10 +3710,10 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3447,10 +3724,10 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3464,7 +3741,7 @@
         <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3475,10 +3752,10 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3489,10 +3766,10 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3503,10 +3780,10 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3517,10 +3794,10 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3531,10 +3808,10 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3545,10 +3822,10 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3562,7 +3839,7 @@
         <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3570,13 +3847,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>530</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3584,13 +3861,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3604,7 +3881,7 @@
         <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3618,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3626,13 +3903,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3640,13 +3917,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3660,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3674,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3688,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3702,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3716,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3727,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3741,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3758,7 +4035,7 @@
         <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3766,10 +4043,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3777,10 +4057,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>132</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3791,7 +4074,10 @@
         <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3802,7 +4088,10 @@
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3813,7 +4102,10 @@
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>135</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3824,7 +4116,10 @@
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>135</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3835,7 +4130,10 @@
         <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>97</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3843,13 +4141,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3857,13 +4155,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3877,7 +4175,7 @@
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3891,7 +4189,7 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3905,7 +4203,7 @@
         <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3919,7 +4217,7 @@
         <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3930,10 +4228,10 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3944,10 +4242,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3958,10 +4256,10 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3972,10 +4270,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3989,7 +4287,7 @@
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4003,7 +4301,7 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -4017,7 +4315,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4031,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -4045,7 +4343,7 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -4059,7 +4357,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4070,10 +4368,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -4084,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -4101,7 +4399,7 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4115,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4129,7 +4427,7 @@
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4140,10 +4438,10 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4154,10 +4452,10 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4171,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4185,16 +4483,44 @@
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
     </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D115" xr:uid="{682B8BBE-0907-4444-BA33-11D173EA2D3F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D115">
-      <sortCondition ref="A1:A115"/>
+  <autoFilter ref="A1:D117" xr:uid="{682B8BBE-0907-4444-BA33-11D173EA2D3F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
+      <sortCondition ref="A1:A117"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12695,6 +13021,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADC5DD682685524DBE36BB91BF838720" ma:contentTypeVersion="7" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c75924bae36d8f058e5b3dc82e5d8938">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c97b5fc-7388-4a87-ba45-03f48e7696ec" xmlns:ns4="64d7bfaf-c35d-48c2-ac78-f171a5d78da8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="472c4f9dfe3d7afa4d31f1125b63b3cc" ns3:_="" ns4:_="">
     <xsd:import namespace="8c97b5fc-7388-4a87-ba45-03f48e7696ec"/>
@@ -12877,22 +13218,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB93AB6-6C83-4069-8406-3DED50A3F345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="64d7bfaf-c35d-48c2-ac78-f171a5d78da8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c97b5fc-7388-4a87-ba45-03f48e7696ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD171E4B-38A9-43D0-8F44-AE5252B4D569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E23FAFC-4299-4FE3-A87E-EA3E062D4671}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12909,29 +13260,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD171E4B-38A9-43D0-8F44-AE5252B4D569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB93AB6-6C83-4069-8406-3DED50A3F345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="64d7bfaf-c35d-48c2-ac78-f171a5d78da8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c97b5fc-7388-4a87-ba45-03f48e7696ec"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>